--- a/docs/data_sources.xlsx
+++ b/docs/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/wrgg_uw_edu/Documents/02Work/ResolveToSaveLives/GitHub/UW-RTSL-100MLives/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3053235C-F389-44A0-877D-5BD07DF44D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D5B3414-12D4-4AB3-BB8A-25C419D25092}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{3053235C-F389-44A0-877D-5BD07DF44D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A6C438-0D88-4D84-86EE-0E27C4602C7B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C9BD3797-5C78-4FC6-A8DE-6D0F323E6F24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>Country_groupings_extended</t>
   </si>
@@ -62,9 +62,6 @@
     <t>countries list</t>
   </si>
   <si>
-    <t>country groups</t>
-  </si>
-  <si>
     <t>GBD</t>
   </si>
   <si>
@@ -90,16 +87,123 @@
   </si>
   <si>
     <t>population projections 2020-2100</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>WPP.adj</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>country groups and names</t>
+  </si>
+  <si>
+    <t>base_rates_2022.csv</t>
+  </si>
+  <si>
+    <t>base rates for modelling</t>
+  </si>
+  <si>
+    <t>estimated population by sex and single</t>
+  </si>
+  <si>
+    <t>IHME-CFR.csv</t>
+  </si>
+  <si>
+    <t>IHME</t>
+  </si>
+  <si>
+    <t>disaggregation</t>
+  </si>
+  <si>
+    <t>location-year-sex-cause</t>
+  </si>
+  <si>
+    <t>Case fatality ratios</t>
+  </si>
+  <si>
+    <t>location-year-sex-singleAge</t>
+  </si>
+  <si>
+    <t>population 20 - 95+ 2017-2050</t>
+  </si>
+  <si>
+    <t>bp_data6.csv</t>
+  </si>
+  <si>
+    <t>PopulationsAge20_2050.csv</t>
+  </si>
+  <si>
+    <t>data input for risk factors/intervention from GBD 2019</t>
+  </si>
+  <si>
+    <t>location-sex-cause</t>
+  </si>
+  <si>
+    <t>add scale-up data</t>
+  </si>
+  <si>
+    <t>covfxn2.csv</t>
+  </si>
+  <si>
+    <t>NCD-RisC_Lancet_2017_Men_Agespecific_Mean_SBP_by_Country.csv</t>
+  </si>
+  <si>
+    <t>intervention_full</t>
+  </si>
+  <si>
+    <t>fem_raisedBP.csv</t>
+  </si>
+  <si>
+    <t>NCD-RisC_Lancet_2017_Women_Agespecific_Mean_SBP_by_Country.csv</t>
+  </si>
+  <si>
+    <t>The Lancet</t>
+  </si>
+  <si>
+    <t>male_raisedBP.csv</t>
+  </si>
+  <si>
+    <t>1. get bp2022</t>
+  </si>
+  <si>
+    <t>add proportion of population with raised blood pressure</t>
+  </si>
+  <si>
+    <t>##compare to nhanes##</t>
+  </si>
+  <si>
+    <t>bp_data3.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,8 +229,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,109 +569,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A498B8-DD35-4485-A262-87FFCA41C33E}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>2019</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>2019</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>2019</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>2019</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>2017</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>2017</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
